--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.009404666666667</v>
+        <v>3.109891</v>
       </c>
       <c r="H2">
-        <v>3.028214</v>
+        <v>9.329673</v>
       </c>
       <c r="I2">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="J2">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.162136</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="N2">
-        <v>0.486408</v>
+        <v>1.709721</v>
       </c>
       <c r="O2">
-        <v>0.0598694021675715</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="P2">
-        <v>0.05986940216757151</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="Q2">
-        <v>0.1636608350346666</v>
+        <v>1.772348650137</v>
       </c>
       <c r="R2">
-        <v>1.472947515312</v>
+        <v>15.951137851233</v>
       </c>
       <c r="S2">
-        <v>0.01165737504086058</v>
+        <v>0.06457511054587071</v>
       </c>
       <c r="T2">
-        <v>0.01165737504086059</v>
+        <v>0.0645751105458707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.009404666666667</v>
+        <v>3.109891</v>
       </c>
       <c r="H3">
-        <v>3.028214</v>
+        <v>9.329673</v>
       </c>
       <c r="I3">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="J3">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.694965</v>
       </c>
       <c r="N3">
-        <v>5.084894999999999</v>
+        <v>5.084895</v>
       </c>
       <c r="O3">
-        <v>0.6258729785177741</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="P3">
-        <v>0.6258729785177742</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="Q3">
-        <v>1.710905580836666</v>
+        <v>5.271156398815</v>
       </c>
       <c r="R3">
-        <v>15.39815022753</v>
+        <v>47.440407589335</v>
       </c>
       <c r="S3">
-        <v>0.1218658575895067</v>
+        <v>0.1920533565062049</v>
       </c>
       <c r="T3">
-        <v>0.1218658575895067</v>
+        <v>0.1920533565062049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.009404666666667</v>
+        <v>3.109891</v>
       </c>
       <c r="H4">
-        <v>3.028214</v>
+        <v>9.329673</v>
       </c>
       <c r="I4">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="J4">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.153219</v>
+        <v>0.125128</v>
       </c>
       <c r="N4">
-        <v>0.459657</v>
+        <v>0.375384</v>
       </c>
       <c r="O4">
-        <v>0.05657676229038053</v>
+        <v>0.03239406671425592</v>
       </c>
       <c r="P4">
-        <v>0.05657676229038054</v>
+        <v>0.03239406671425593</v>
       </c>
       <c r="Q4">
-        <v>0.154659973622</v>
+        <v>0.3891344410479999</v>
       </c>
       <c r="R4">
-        <v>1.391939762598</v>
+        <v>3.502209969432</v>
       </c>
       <c r="S4">
-        <v>0.01101625392501121</v>
+        <v>0.01417802278684717</v>
       </c>
       <c r="T4">
-        <v>0.01101625392501121</v>
+        <v>0.01417802278684717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.009404666666667</v>
+        <v>3.109891</v>
       </c>
       <c r="H5">
-        <v>3.028214</v>
+        <v>9.329673</v>
       </c>
       <c r="I5">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="J5">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6978413333333333</v>
+        <v>1.472682666666667</v>
       </c>
       <c r="N5">
-        <v>2.093524</v>
+        <v>4.418048</v>
       </c>
       <c r="O5">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="P5">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="Q5">
-        <v>0.7044042984595554</v>
+        <v>4.579882570922666</v>
       </c>
       <c r="R5">
-        <v>6.339638686135999</v>
+        <v>41.218943138304</v>
       </c>
       <c r="S5">
-        <v>0.05017391659890999</v>
+        <v>0.1668669554839433</v>
       </c>
       <c r="T5">
-        <v>0.05017391659891</v>
+        <v>0.1668669554839433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>8.891821</v>
       </c>
       <c r="I6">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="J6">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.162136</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="N6">
-        <v>0.486408</v>
+        <v>1.709721</v>
       </c>
       <c r="O6">
-        <v>0.0598694021675715</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="P6">
-        <v>0.05986940216757151</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="Q6">
-        <v>0.4805614298853333</v>
+        <v>1.689170343549</v>
       </c>
       <c r="R6">
-        <v>4.325052868968</v>
+        <v>15.202533091941</v>
       </c>
       <c r="S6">
-        <v>0.03422984379347035</v>
+        <v>0.06154452830545023</v>
       </c>
       <c r="T6">
-        <v>0.03422984379347035</v>
+        <v>0.06154452830545021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8.891821</v>
       </c>
       <c r="I7">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="J7">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.694965</v>
       </c>
       <c r="N7">
-        <v>5.084894999999999</v>
+        <v>5.084895</v>
       </c>
       <c r="O7">
-        <v>0.6258729785177741</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="P7">
-        <v>0.6258729785177742</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="Q7">
         <v>5.023775127088333</v>
       </c>
       <c r="R7">
-        <v>45.21397614379499</v>
+        <v>45.213976143795</v>
       </c>
       <c r="S7">
-        <v>0.3578377854726863</v>
+        <v>0.1830400774499127</v>
       </c>
       <c r="T7">
-        <v>0.3578377854726864</v>
+        <v>0.1830400774499127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8.891821</v>
       </c>
       <c r="I8">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="J8">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.153219</v>
+        <v>0.125128</v>
       </c>
       <c r="N8">
-        <v>0.459657</v>
+        <v>0.375384</v>
       </c>
       <c r="O8">
-        <v>0.05657676229038053</v>
+        <v>0.03239406671425592</v>
       </c>
       <c r="P8">
-        <v>0.05657676229038054</v>
+        <v>0.03239406671425593</v>
       </c>
       <c r="Q8">
-        <v>0.454131973933</v>
+        <v>0.3708719260293333</v>
       </c>
       <c r="R8">
-        <v>4.087187765397</v>
+        <v>3.337847334264</v>
       </c>
       <c r="S8">
-        <v>0.03234730372151609</v>
+        <v>0.01351263230282199</v>
       </c>
       <c r="T8">
-        <v>0.0323473037215161</v>
+        <v>0.013512632302822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8.891821</v>
       </c>
       <c r="I9">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="J9">
-        <v>0.5717418673676197</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6978413333333333</v>
+        <v>1.472682666666667</v>
       </c>
       <c r="N9">
-        <v>2.093524</v>
+        <v>4.418048</v>
       </c>
       <c r="O9">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="P9">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="Q9">
-        <v>2.068360074133778</v>
+        <v>4.364943553934222</v>
       </c>
       <c r="R9">
-        <v>18.615240667204</v>
+        <v>39.284491985408</v>
       </c>
       <c r="S9">
-        <v>0.1473269343799469</v>
+        <v>0.1590357024279621</v>
       </c>
       <c r="T9">
-        <v>0.1473269343799469</v>
+        <v>0.1590357024279621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6558763333333333</v>
+        <v>0.8168863333333333</v>
       </c>
       <c r="H10">
-        <v>1.967629</v>
+        <v>2.450659</v>
       </c>
       <c r="I10">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="J10">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.162136</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="N10">
-        <v>0.486408</v>
+        <v>1.709721</v>
       </c>
       <c r="O10">
-        <v>0.0598694021675715</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="P10">
-        <v>0.05986940216757151</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="Q10">
-        <v>0.1063411651813333</v>
+        <v>0.465549239571</v>
       </c>
       <c r="R10">
-        <v>0.9570704866319999</v>
+        <v>4.189943156139</v>
       </c>
       <c r="S10">
-        <v>0.007574560184410173</v>
+        <v>0.01696217818515536</v>
       </c>
       <c r="T10">
-        <v>0.007574560184410175</v>
+        <v>0.01696217818515536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6558763333333333</v>
+        <v>0.8168863333333333</v>
       </c>
       <c r="H11">
-        <v>1.967629</v>
+        <v>2.450659</v>
       </c>
       <c r="I11">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="J11">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.694965</v>
       </c>
       <c r="N11">
-        <v>5.084894999999999</v>
+        <v>5.084895</v>
       </c>
       <c r="O11">
-        <v>0.6258729785177741</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="P11">
-        <v>0.6258729785177742</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="Q11">
-        <v>1.111687429328333</v>
+        <v>1.384593743978333</v>
       </c>
       <c r="R11">
-        <v>10.005186863955</v>
+        <v>12.461343695805</v>
       </c>
       <c r="S11">
-        <v>0.07918423054083479</v>
+        <v>0.05044735079162364</v>
       </c>
       <c r="T11">
-        <v>0.0791842305408348</v>
+        <v>0.05044735079162364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6558763333333333</v>
+        <v>0.8168863333333333</v>
       </c>
       <c r="H12">
-        <v>1.967629</v>
+        <v>2.450659</v>
       </c>
       <c r="I12">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="J12">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.153219</v>
+        <v>0.125128</v>
       </c>
       <c r="N12">
-        <v>0.459657</v>
+        <v>0.375384</v>
       </c>
       <c r="O12">
-        <v>0.05657676229038053</v>
+        <v>0.03239406671425592</v>
       </c>
       <c r="P12">
-        <v>0.05657676229038054</v>
+        <v>0.03239406671425593</v>
       </c>
       <c r="Q12">
-        <v>0.100492715917</v>
+        <v>0.1022153531173333</v>
       </c>
       <c r="R12">
-        <v>0.9044344432529999</v>
+        <v>0.919938178056</v>
       </c>
       <c r="S12">
-        <v>0.007157981798583549</v>
+        <v>0.003724192599761223</v>
       </c>
       <c r="T12">
-        <v>0.007157981798583551</v>
+        <v>0.003724192599761224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6558763333333333</v>
+        <v>0.8168863333333333</v>
       </c>
       <c r="H13">
-        <v>1.967629</v>
+        <v>2.450659</v>
       </c>
       <c r="I13">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="J13">
-        <v>0.1265180527978107</v>
+        <v>0.1149652691837634</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6978413333333333</v>
+        <v>1.472682666666667</v>
       </c>
       <c r="N13">
-        <v>2.093524</v>
+        <v>4.418048</v>
       </c>
       <c r="O13">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="P13">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="Q13">
-        <v>0.4576976149551111</v>
+        <v>1.203014343736889</v>
       </c>
       <c r="R13">
-        <v>4.119278534596</v>
+        <v>10.827129093632</v>
       </c>
       <c r="S13">
-        <v>0.03260128027398218</v>
+        <v>0.0438315476072232</v>
       </c>
       <c r="T13">
-        <v>0.03260128027398218</v>
+        <v>0.0438315476072232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5548319999999999</v>
+        <v>0.2147876666666667</v>
       </c>
       <c r="H14">
-        <v>1.664496</v>
+        <v>0.644363</v>
       </c>
       <c r="I14">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="J14">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.162136</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="N14">
-        <v>0.486408</v>
+        <v>1.709721</v>
       </c>
       <c r="O14">
-        <v>0.0598694021675715</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="P14">
-        <v>0.05986940216757151</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="Q14">
-        <v>0.08995824115199998</v>
+        <v>0.122408994747</v>
       </c>
       <c r="R14">
-        <v>0.8096241703679999</v>
+        <v>1.101680952723</v>
       </c>
       <c r="S14">
-        <v>0.006407623148830391</v>
+        <v>0.004459943232380052</v>
       </c>
       <c r="T14">
-        <v>0.006407623148830394</v>
+        <v>0.00445994323238005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5548319999999999</v>
+        <v>0.2147876666666667</v>
       </c>
       <c r="H15">
-        <v>1.664496</v>
+        <v>0.644363</v>
       </c>
       <c r="I15">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="J15">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>1.694965</v>
       </c>
       <c r="N15">
-        <v>5.084894999999999</v>
+        <v>5.084895</v>
       </c>
       <c r="O15">
-        <v>0.6258729785177741</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="P15">
-        <v>0.6258729785177742</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="Q15">
-        <v>0.9404208208799997</v>
+        <v>0.3640575774316667</v>
       </c>
       <c r="R15">
-        <v>8.463787387919998</v>
+        <v>3.276518196885001</v>
       </c>
       <c r="S15">
-        <v>0.06698510491474628</v>
+        <v>0.01326435309773534</v>
       </c>
       <c r="T15">
-        <v>0.06698510491474631</v>
+        <v>0.01326435309773534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5548319999999999</v>
+        <v>0.2147876666666667</v>
       </c>
       <c r="H16">
-        <v>1.664496</v>
+        <v>0.644363</v>
       </c>
       <c r="I16">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="J16">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.153219</v>
+        <v>0.125128</v>
       </c>
       <c r="N16">
-        <v>0.459657</v>
+        <v>0.375384</v>
       </c>
       <c r="O16">
-        <v>0.05657676229038053</v>
+        <v>0.03239406671425592</v>
       </c>
       <c r="P16">
-        <v>0.05657676229038054</v>
+        <v>0.03239406671425593</v>
       </c>
       <c r="Q16">
-        <v>0.08501080420799997</v>
+        <v>0.02687595115466667</v>
       </c>
       <c r="R16">
-        <v>0.7650972378719999</v>
+        <v>0.241883560392</v>
       </c>
       <c r="S16">
-        <v>0.006055222845269673</v>
+        <v>0.0009792190248255435</v>
       </c>
       <c r="T16">
-        <v>0.006055222845269675</v>
+        <v>0.0009792190248255435</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5548319999999999</v>
+        <v>0.2147876666666667</v>
       </c>
       <c r="H17">
-        <v>1.664496</v>
+        <v>0.644363</v>
       </c>
       <c r="I17">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="J17">
-        <v>0.107026676680281</v>
+        <v>0.03022834500722351</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6978413333333333</v>
+        <v>1.472682666666667</v>
       </c>
       <c r="N17">
-        <v>2.093524</v>
+        <v>4.418048</v>
       </c>
       <c r="O17">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="P17">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="Q17">
-        <v>0.3871847026559999</v>
+        <v>0.3163140737137778</v>
       </c>
       <c r="R17">
-        <v>3.484662323903999</v>
+        <v>2.846826663424</v>
       </c>
       <c r="S17">
-        <v>0.02757872577143467</v>
+        <v>0.01152482965228258</v>
       </c>
       <c r="T17">
-        <v>0.02757872577143468</v>
+        <v>0.01152482965228258</v>
       </c>
     </row>
   </sheetData>
